--- a/images/L2-latency-summary.xlsx
+++ b/images/L2-latency-summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://att-my.sharepoint.com/personal/bs7652_att_com/Documents/Documents/bitag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{906966DA-2A92-47AA-8A0E-00C56BCA30EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{906966DA-2A92-47AA-8A0E-00C56BCA30EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{228E5EE6-BE00-4F79-88FD-A1E832F8A435}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{0FD830E7-E975-4981-A6B2-F84E9BB2B959}"/>
   </bookViews>
@@ -60,76 +60,76 @@
     <t xml:space="preserve">Ethernet </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.0182 ms (unshielded twisted pair) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> node-specific </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wi-Fi </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.0108 ms (air) </t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve"> NA for home network Wi-Fi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Powerline Carrier (PLC) </t>
   </si>
   <si>
     <t xml:space="preserve"> *?* </t>
   </si>
   <si>
-    <t xml:space="preserve"> NA for G.hn; node-specific for HomePlug </t>
-  </si>
-  <si>
     <t xml:space="preserve"> *TBD* </t>
   </si>
   <si>
     <t xml:space="preserve">DOCSIS </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.0125 ms (coax) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 - 8 ms </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 - 200 ms (for queuing mechanisms specified by architecture) </t>
-  </si>
-  <si>
     <t xml:space="preserve">DSL / G.fast </t>
   </si>
   <si>
-    <t xml:space="preserve"> if enabled, configured to 2 - 20 ms; NA if not enabled </t>
-  </si>
-  <si>
     <t xml:space="preserve">PON </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.0160 ms (optical fiber) </t>
-  </si>
-  <si>
     <t xml:space="preserve">LTE / 5G </t>
   </si>
   <si>
-    <t xml:space="preserve"> (queuing mechanisms specified by architecture) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5G is about half LTE delay; LTE less than 3G delay; 5G architecture adds ~20 ms</t>
-  </si>
-  <si>
     <t xml:space="preserve">Satellite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0182 ms (unshielded twisted pair) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">node-specific </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NA for home network Wi-Fi</t>
+  </si>
+  <si>
+    <t>5G is about half LTE delay; LTE less than 3G delay; 5G architecture adds ~20 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(queuing mechanisms specified by architecture) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - 200 ms (for queuing mechanisms specified by architecture) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - 8 ms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA for G.hn; node-specific for HomePlug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if enabled, ISP configures around 2 - 20 ms; NA if not enabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0108 ms (air) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0160 ms (optical fiber) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0125 ms (coax) </t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +557,7 @@
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -582,159 +582,159 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
